--- a/In Class/ShortestPath_temp.xlsx
+++ b/In Class/ShortestPath_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholaskemper/Documents/Spring 2021/Decision Models/In Class/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD9D16-2703-E944-A48A-A1E7FDF6CD58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365BF527-E91A-704F-8E87-E80B901DF905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2380" windowWidth="25600" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,7 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -973,6 +975,10 @@
       </c>
       <c r="G9" s="1">
         <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <f>SUMPRODUCT($C$4:$S$4,C9:S9)</f>
+        <v>510</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>27</v>
